--- a/OtherNote/日程安排2.0版.xlsx
+++ b/OtherNote/日程安排2.0版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B8EFC-6651-4CF8-9C7A-B0933D8D777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEC40FB-4D58-4097-9855-F7DAD4B8E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A54025D2-62E0-4CFE-9AAA-334DC7768324}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间安排完成评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日计划评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间计划安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +158,10 @@
   </si>
   <si>
     <t>日程计划表</t>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -224,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -628,90 +624,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -811,32 +723,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -865,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,12 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -929,18 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,9 +818,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,33 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,77 +851,107 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43101B87-DBCB-4722-AEB3-F09E6303DE56}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,82 +1281,81 @@
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="19.75" customWidth="1"/>
-    <col min="12" max="12" width="24.375" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42">
         <v>44447</v>
       </c>
-      <c r="C2" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="M2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="36" t="s">
+      <c r="J4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="40"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="10">
         <v>0.5625</v>
@@ -1497,26 +1364,24 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="40"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
@@ -1525,14 +1390,12 @@
         <v>14</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="7"/>
@@ -1541,297 +1404,257 @@
         <v>15</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="40"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="40"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="60"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="49" t="s">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="45" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="40"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="40"/>
-    </row>
-    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1889,14 +1712,14 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="15"/>
+      <c r="I1" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1917,11 +1740,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>28</v>
+      <c r="I3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1943,11 +1766,11 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>29</v>
+      <c r="I4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1969,11 +1792,11 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>30</v>
+      <c r="I5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1992,11 +1815,11 @@
       <c r="F6" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>26</v>
+      <c r="I6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
